--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.268030666666667</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H2">
-        <v>3.804092</v>
+        <v>1.810499</v>
       </c>
       <c r="I2">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J2">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.002587333333333333</v>
+        <v>0.3037343333333333</v>
       </c>
       <c r="N2">
-        <v>0.007762000000000001</v>
+        <v>0.911203</v>
       </c>
       <c r="O2">
-        <v>0.002703238278857034</v>
+        <v>0.5768794419634096</v>
       </c>
       <c r="P2">
-        <v>0.002703238278857034</v>
+        <v>0.5768794419634096</v>
       </c>
       <c r="Q2">
-        <v>0.003280818011555555</v>
+        <v>0.1833035689218889</v>
       </c>
       <c r="R2">
-        <v>0.029527362104</v>
+        <v>1.649732120297</v>
       </c>
       <c r="S2">
-        <v>0.001521131420840134</v>
+        <v>0.2527856807323127</v>
       </c>
       <c r="T2">
-        <v>0.001521131420840134</v>
+        <v>0.2527856807323127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,51 +596,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.268030666666667</v>
+        <v>0.6034996666666667</v>
       </c>
       <c r="H3">
-        <v>3.804092</v>
+        <v>1.810499</v>
       </c>
       <c r="I3">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118401</v>
       </c>
       <c r="J3">
-        <v>0.5627071178805921</v>
+        <v>0.4381949890118402</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3037343333333333</v>
+        <v>0.2227783333333333</v>
       </c>
       <c r="N3">
-        <v>0.911203</v>
+        <v>0.668335</v>
       </c>
       <c r="O3">
-        <v>0.3173407407123635</v>
+        <v>0.4231205580365905</v>
       </c>
       <c r="P3">
-        <v>0.3173407407123636</v>
+        <v>0.4231205580365905</v>
       </c>
       <c r="Q3">
-        <v>0.3851444491862221</v>
+        <v>0.1344466499072222</v>
       </c>
       <c r="R3">
-        <v>3.466300042676</v>
+        <v>1.210019849165</v>
       </c>
       <c r="S3">
-        <v>0.1785698935923463</v>
+        <v>0.1854093082795274</v>
       </c>
       <c r="T3">
-        <v>0.1785698935923464</v>
+        <v>0.1854093082795275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.268030666666667</v>
+        <v>0.4194516666666666</v>
       </c>
       <c r="H4">
-        <v>3.804092</v>
+        <v>1.258355</v>
       </c>
       <c r="I4">
-        <v>0.5627071178805921</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J4">
-        <v>0.5627071178805921</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.650802</v>
+        <v>0.3037343333333333</v>
       </c>
       <c r="N4">
-        <v>1.952406</v>
+        <v>0.911203</v>
       </c>
       <c r="O4">
-        <v>0.6799560210087794</v>
+        <v>0.5768794419634096</v>
       </c>
       <c r="P4">
-        <v>0.6799560210087794</v>
+        <v>0.5768794419634096</v>
       </c>
       <c r="Q4">
-        <v>0.8252368939279999</v>
+        <v>0.1274018723405555</v>
       </c>
       <c r="R4">
-        <v>7.427132045351999</v>
+        <v>1.146616851065</v>
       </c>
       <c r="S4">
-        <v>0.3826160928674056</v>
+        <v>0.1756941734173338</v>
       </c>
       <c r="T4">
-        <v>0.3826160928674056</v>
+        <v>0.1756941734173338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,45 +726,45 @@
         <v>1.258355</v>
       </c>
       <c r="I5">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="J5">
-        <v>0.1861377998535873</v>
+        <v>0.3045596022963802</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.002587333333333333</v>
+        <v>0.2227783333333333</v>
       </c>
       <c r="N5">
-        <v>0.007762000000000001</v>
+        <v>0.668335</v>
       </c>
       <c r="O5">
-        <v>0.002703238278857034</v>
+        <v>0.4231205580365905</v>
       </c>
       <c r="P5">
-        <v>0.002703238278857034</v>
+        <v>0.4231205580365905</v>
       </c>
       <c r="Q5">
-        <v>0.001085261278888889</v>
+        <v>0.09344474321388888</v>
       </c>
       <c r="R5">
-        <v>0.009767351509999999</v>
+        <v>0.841002688925</v>
       </c>
       <c r="S5">
-        <v>0.0005031748257064464</v>
+        <v>0.1288654288790465</v>
       </c>
       <c r="T5">
-        <v>0.0005031748257064464</v>
+        <v>0.1288654288790465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4194516666666666</v>
+        <v>0.3542886666666667</v>
       </c>
       <c r="H6">
-        <v>1.258355</v>
+        <v>1.062866</v>
       </c>
       <c r="I6">
-        <v>0.1861377998535873</v>
+        <v>0.2572454086917797</v>
       </c>
       <c r="J6">
-        <v>0.1861377998535873</v>
+        <v>0.2572454086917798</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.911203</v>
       </c>
       <c r="O6">
-        <v>0.3173407407123635</v>
+        <v>0.5768794419634096</v>
       </c>
       <c r="P6">
-        <v>0.3173407407123636</v>
+        <v>0.5768794419634096</v>
       </c>
       <c r="Q6">
-        <v>0.1274018723405555</v>
+        <v>0.1076096319775556</v>
       </c>
       <c r="R6">
-        <v>1.146616851065</v>
+        <v>0.9684866877980001</v>
       </c>
       <c r="S6">
-        <v>0.05906910728010706</v>
+        <v>0.1483995878137631</v>
       </c>
       <c r="T6">
-        <v>0.05906910728010707</v>
+        <v>0.1483995878137631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,238 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3542886666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.062866</v>
+      </c>
+      <c r="I7">
+        <v>0.2572454086917797</v>
+      </c>
+      <c r="J7">
+        <v>0.2572454086917798</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.4194516666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.258355</v>
-      </c>
-      <c r="I7">
-        <v>0.1861377998535873</v>
-      </c>
-      <c r="J7">
-        <v>0.1861377998535873</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M7">
-        <v>0.650802</v>
+        <v>0.2227783333333333</v>
       </c>
       <c r="N7">
-        <v>1.952406</v>
+        <v>0.668335</v>
       </c>
       <c r="O7">
-        <v>0.6799560210087794</v>
+        <v>0.4231205580365905</v>
       </c>
       <c r="P7">
-        <v>0.6799560210087794</v>
+        <v>0.4231205580365905</v>
       </c>
       <c r="Q7">
-        <v>0.27297998357</v>
+        <v>0.07892783867888889</v>
       </c>
       <c r="R7">
-        <v>2.45681985213</v>
+        <v>0.7103505481100001</v>
       </c>
       <c r="S7">
-        <v>0.1265655177477738</v>
+        <v>0.1088458208780166</v>
       </c>
       <c r="T7">
-        <v>0.1265655177477738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.5659646666666666</v>
-      </c>
-      <c r="H8">
-        <v>1.697894</v>
-      </c>
-      <c r="I8">
-        <v>0.2511550822658206</v>
-      </c>
-      <c r="J8">
-        <v>0.2511550822658206</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.002587333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.007762000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.002703238278857034</v>
-      </c>
-      <c r="P8">
-        <v>0.002703238278857034</v>
-      </c>
-      <c r="Q8">
-        <v>0.001464339247555555</v>
-      </c>
-      <c r="R8">
-        <v>0.013179053228</v>
-      </c>
-      <c r="S8">
-        <v>0.0006789320323104537</v>
-      </c>
-      <c r="T8">
-        <v>0.0006789320323104537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.5659646666666666</v>
-      </c>
-      <c r="H9">
-        <v>1.697894</v>
-      </c>
-      <c r="I9">
-        <v>0.2511550822658206</v>
-      </c>
-      <c r="J9">
-        <v>0.2511550822658206</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.3037343333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.911203</v>
-      </c>
-      <c r="O9">
-        <v>0.3173407407123635</v>
-      </c>
-      <c r="P9">
-        <v>0.3173407407123636</v>
-      </c>
-      <c r="Q9">
-        <v>0.1719029007202222</v>
-      </c>
-      <c r="R9">
-        <v>1.547126106482</v>
-      </c>
-      <c r="S9">
-        <v>0.07970173983991011</v>
-      </c>
-      <c r="T9">
-        <v>0.07970173983991012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.5659646666666666</v>
-      </c>
-      <c r="H10">
-        <v>1.697894</v>
-      </c>
-      <c r="I10">
-        <v>0.2511550822658206</v>
-      </c>
-      <c r="J10">
-        <v>0.2511550822658206</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.650802</v>
-      </c>
-      <c r="N10">
-        <v>1.952406</v>
-      </c>
-      <c r="O10">
-        <v>0.6799560210087794</v>
-      </c>
-      <c r="P10">
-        <v>0.6799560210087794</v>
-      </c>
-      <c r="Q10">
-        <v>0.3683309369959999</v>
-      </c>
-      <c r="R10">
-        <v>3.314978432963999</v>
-      </c>
-      <c r="S10">
-        <v>0.1707744103936</v>
-      </c>
-      <c r="T10">
-        <v>0.1707744103936</v>
+        <v>0.1088458208780166</v>
       </c>
     </row>
   </sheetData>
